--- a/Microsoft Excel-Arbeitsblatt (neu).xlsx
+++ b/Microsoft Excel-Arbeitsblatt (neu).xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -32,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -40,18 +47,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +238,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +446,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>